--- a/doc/ue_config.xlsx
+++ b/doc/ue_config.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BB8847-B9C9-49B3-9516-CD7DEB62AE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="蓝图" sheetId="2" r:id="rId2"/>
+    <sheet name="示例代码" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>FConfigValue</t>
   </si>
@@ -215,14 +218,142 @@
     <t>有些狗血，配置文件能简单的定义一些配置之外，有很多的局限性
 1:可以进行一些全局的，账号无关的配置
 2:账号相关的，需要做到互不相应，就需要自己实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBlueprintPathsLibrary</t>
+  </si>
+  <si>
+    <t>文件相关操作类：获取各个目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的蓝图类：UBlueprintPathsLibrary，只有这个蓝图类在脚本才能获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static bool ShouldSaveToUserDir();</t>
+  </si>
+  <si>
+    <t>static bool HasProjectPersistentDownloadDir();</t>
+  </si>
+  <si>
+    <t>下载目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static FString ProjectPersistentDownloadDir();</t>
+  </si>
+  <si>
+    <t>../../../../UE/UnrealEngine-4.27.2-release/../../UEProject/MyProject004/Saved/PersistentDownloadDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在下载目录创建了PersistentDownloadDir文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取下载目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用这个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static FString ProjectSavedDir();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../UE/UnrealEngine-4.27.2-release/../../UEProject/MyProject004/Saved/</t>
+  </si>
+  <si>
+    <t>纯下载目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其里面的Paks就是引擎默认加载的目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutPakFolders.Add(FString::Printf(TEXT("%sPaks/"), *FPaths::ProjectSavedDir()));</t>
+  </si>
+  <si>
+    <t>FString appVer;</t>
+  </si>
+  <si>
+    <t>GConfig-&gt;GetString(TEXT("Version"), TEXT("Ver"), appVer, GGameIni);</t>
+  </si>
+  <si>
+    <t>if (appVer.IsEmpty())</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::SafeCheckVersion(), NotFound [Version]:Ver In GGameIni"));</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>FString filename = FPaths::ProjectPersistentDownloadDir() + "/Ver.ini";</t>
+  </si>
+  <si>
+    <t>FString updateVer = TEXT("");</t>
+  </si>
+  <si>
+    <t>GConfig-&gt;GetString(TEXT("Version"), TEXT("Ver"), updateVer, filename);</t>
+  </si>
+  <si>
+    <t>if (updateVer.IsEmpty())</t>
+  </si>
+  <si>
+    <t>{// 没有记录文件？？？</t>
+  </si>
+  <si>
+    <t>// 删除老的下载目录，防止老的文件干扰</t>
+  </si>
+  <si>
+    <t>DeleteDownLoadDir();</t>
+  </si>
+  <si>
+    <t>// 创建新的下载目录</t>
+  </si>
+  <si>
+    <t>CreateDownLoadDir();</t>
+  </si>
+  <si>
+    <t>// 以当前应用的版本号，写入新的版本号</t>
+  </si>
+  <si>
+    <t>GConfig-&gt;Flush(false, filename);</t>
+  </si>
+  <si>
+    <t>从Base包里面获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从下载目录获取，没有就新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GConfig-&gt;LoadFile(filename);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GConfig-&gt;SetString(TEXT("Version"), TEXT("Ver"), *appVer, filename);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +377,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -267,12 +405,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -555,10 +694,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -572,18 +711,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -822,4 +961,254 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44611E5B-A131-4984-B111-CCAA13311E62}">
+  <dimension ref="B4:U24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C15" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="I24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FC2015-4A95-4807-982A-C309FBDCFEAD}">
+  <dimension ref="C7:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_config.xlsx
+++ b/doc/ue_config.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BB8847-B9C9-49B3-9516-CD7DEB62AE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="蓝图" sheetId="2" r:id="rId2"/>
     <sheet name="示例代码" sheetId="3" r:id="rId3"/>
+    <sheet name="路径" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
   <si>
     <t>FConfigValue</t>
   </si>
@@ -282,77 +282,106 @@
     <t>FString appVer;</t>
   </si>
   <si>
+    <t>if (appVer.IsEmpty())</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::SafeCheckVersion(), NotFound [Version]:Ver In GGameIni"));</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>FString filename = FPaths::ProjectPersistentDownloadDir() + "/Ver.ini";</t>
+  </si>
+  <si>
+    <t>FString updateVer = TEXT("");</t>
+  </si>
+  <si>
+    <t>GConfig-&gt;GetString(TEXT("Version"), TEXT("Ver"), updateVer, filename);</t>
+  </si>
+  <si>
+    <t>if (updateVer.IsEmpty())</t>
+  </si>
+  <si>
+    <t>{// 没有记录文件？？？</t>
+  </si>
+  <si>
+    <t>// 删除老的下载目录，防止老的文件干扰</t>
+  </si>
+  <si>
+    <t>DeleteDownLoadDir();</t>
+  </si>
+  <si>
+    <t>// 创建新的下载目录</t>
+  </si>
+  <si>
+    <t>CreateDownLoadDir();</t>
+  </si>
+  <si>
+    <t>// 以当前应用的版本号，写入新的版本号</t>
+  </si>
+  <si>
+    <t>从Base包里面获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从下载目录获取，没有就新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GConfig-&gt;LoadFile(filename);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GConfig-&gt;SetString(TEXT("Version"), TEXT("Ver"), *appVer, filename);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GConfig-&gt;GetString(TEXT("Version"), TEXT("Ver"), appVer, GGameIni);</t>
-  </si>
-  <si>
-    <t>if (appVer.IsEmpty())</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::SafeCheckVersion(), NotFound [Version]:Ver In GGameIni"));</t>
-  </si>
-  <si>
-    <t>return;</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>FString filename = FPaths::ProjectPersistentDownloadDir() + "/Ver.ini";</t>
-  </si>
-  <si>
-    <t>FString updateVer = TEXT("");</t>
-  </si>
-  <si>
-    <t>GConfig-&gt;GetString(TEXT("Version"), TEXT("Ver"), updateVer, filename);</t>
-  </si>
-  <si>
-    <t>if (updateVer.IsEmpty())</t>
-  </si>
-  <si>
-    <t>{// 没有记录文件？？？</t>
-  </si>
-  <si>
-    <t>// 删除老的下载目录，防止老的文件干扰</t>
-  </si>
-  <si>
-    <t>DeleteDownLoadDir();</t>
-  </si>
-  <si>
-    <t>// 创建新的下载目录</t>
-  </si>
-  <si>
-    <t>CreateDownLoadDir();</t>
-  </si>
-  <si>
-    <t>// 以当前应用的版本号，写入新的版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GConfig-&gt;Flush(false, filename);</t>
-  </si>
-  <si>
-    <t>从Base包里面获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从下载目录获取，没有就新建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GConfig-&gt;LoadFile(filename);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GConfig-&gt;SetString(TEXT("Version"), TEXT("Ver"), *appVer, filename);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GGameIni</t>
+  </si>
+  <si>
+    <t>D:/Project/MOW/Saved/Config/Windows/Game.ini</t>
+  </si>
+  <si>
+    <t>GInputIni</t>
+  </si>
+  <si>
+    <t>D:/Project/MOW/Saved/Config/Windows/Input.ini</t>
+  </si>
+  <si>
+    <t>GEditorIni</t>
+  </si>
+  <si>
+    <t>D:/Project/MOW/Saved/Config/Windows/Editor.ini</t>
+  </si>
+  <si>
+    <t>FConfigCacheIni::LoadGlobalIniFile(GGameIni, TEXT("Game"));</t>
+  </si>
+  <si>
+    <t>FConfigCacheIni::LoadGlobalIniFile(GInputIni, TEXT("Input"));</t>
+  </si>
+  <si>
+    <t>FConfigCacheIni::LoadGlobalIniFile(GEditorIni, TEXT("Editor"));</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -694,7 +723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -964,7 +993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44611E5B-A131-4984-B111-CCAA13311E62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1078,18 +1107,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FC2015-4A95-4807-982A-C309FBDCFEAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="7" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.2">
@@ -1099,116 +1128,181 @@
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_config.xlsx
+++ b/doc/ue_config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B304556-3BEF-44E6-80C0-107BF641BBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,19 +370,20 @@
     <t>D:/Project/MOW/Saved/Config/Windows/Editor.ini</t>
   </si>
   <si>
+    <t>FConfigCacheIni::LoadGlobalIniFile(GInputIni, TEXT("Input"));</t>
+  </si>
+  <si>
+    <t>FConfigCacheIni::LoadGlobalIniFile(GEditorIni, TEXT("Editor"));</t>
+  </si>
+  <si>
     <t>FConfigCacheIni::LoadGlobalIniFile(GGameIni, TEXT("Game"));</t>
-  </si>
-  <si>
-    <t>FConfigCacheIni::LoadGlobalIniFile(GInputIni, TEXT("Input"));</t>
-  </si>
-  <si>
-    <t>FConfigCacheIni::LoadGlobalIniFile(GEditorIni, TEXT("Editor"));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,6 +461,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>227337</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>132836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C23A1BE-1C1F-D95D-6AD1-4BA596C40023}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639175" y="1085850"/>
+          <a:ext cx="10104762" cy="4114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -723,7 +774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -993,7 +1044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1107,7 +1158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C7:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1243,11 +1294,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B4:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1287,22 +1338,23 @@
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/ue_config.xlsx
+++ b/doc/ue_config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B304556-3BEF-44E6-80C0-107BF641BBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,7 +382,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -774,7 +773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1044,7 +1043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1158,7 +1157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1294,11 +1293,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/ue_config.xlsx
+++ b/doc/ue_config.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB120FFD-0592-45DB-BC0D-A1443CBD3EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="蓝图" sheetId="2" r:id="rId2"/>
     <sheet name="示例代码" sheetId="3" r:id="rId3"/>
     <sheet name="路径" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="127">
   <si>
     <t>FConfigValue</t>
   </si>
@@ -376,14 +378,102 @@
   </si>
   <si>
     <t>FConfigCacheIni::LoadGlobalIniFile(GGameIni, TEXT("Game"));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static int32 GPakCache_Enable = 1;</t>
+  </si>
+  <si>
+    <t>GPakCache_Enable,</t>
+  </si>
+  <si>
+    <t>TEXT("If &gt; 0, then enable the pak cache.")</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static FAutoConsoleVariableRef CVar_Enable(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT("pakcache.Enable"),</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pakcache.Enable=1</t>
+  </si>
+  <si>
+    <t>void FConfigCacheIni::LoadConsoleVariablesFromINI()</t>
+  </si>
+  <si>
+    <t>FString ConsoleVariablesPath = FPaths::EngineDir() + TEXT("Config/ConsoleVariables.ini");</t>
+  </si>
+  <si>
+    <t>#if !DISABLE_CHEAT_CVARS</t>
+  </si>
+  <si>
+    <t>// First we read from "../../../Engine/Config/ConsoleVariables.ini" [Startup] section if it exists</t>
+  </si>
+  <si>
+    <t>// This is the only ini file where we allow cheat commands (this is why it's not there for UE_BUILD_SHIPPING || UE_BUILD_TEST)</t>
+  </si>
+  <si>
+    <t>ApplyCVarSettingsFromIni(TEXT("Startup"), *ConsoleVariablesPath, ECVF_SetByConsoleVariablesIni, true);</t>
+  </si>
+  <si>
+    <t>#endif // !DISABLE_CHEAT_CVARS</t>
+  </si>
+  <si>
+    <t>// We also apply from Engine.ini [ConsoleVariables] section</t>
+  </si>
+  <si>
+    <t>ApplyCVarSettingsFromIni(TEXT("ConsoleVariables"), *GEngineIni, ECVF_SetBySystemSettingsIni);</t>
+  </si>
+  <si>
+    <t>#if WITH_EDITOR</t>
+  </si>
+  <si>
+    <t>// We also apply from DefaultEditor.ini [ConsoleVariables] section</t>
+  </si>
+  <si>
+    <t>ApplyCVarSettingsFromIni(TEXT("ConsoleVariables"), *GEditorIni, ECVF_SetBySystemSettingsIni);</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>//WITH_EDITOR</t>
+  </si>
+  <si>
+    <t>IConsoleManager::Get().CallAllConsoleVariableSinks();</t>
+  </si>
+  <si>
+    <t>[ConsoleVariables]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！从Engine.ini里面加载【ConsoleVariables】标签下的所有信息，会自动同步给各个变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +504,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -435,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -445,6 +543,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -773,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1043,7 +1142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1157,7 +1256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C7:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1293,10 +1392,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B4:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1356,4 +1455,165 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F98A094-F423-4058-9F17-133A07F7003A}">
+  <dimension ref="B3:O35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_config.xlsx
+++ b/doc/ue_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB120FFD-0592-45DB-BC0D-A1443CBD3EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AE26BB-9BFD-49E2-8055-4F6EFEB4F022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="示例代码" sheetId="3" r:id="rId3"/>
     <sheet name="路径" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="文件读取" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="159">
   <si>
     <t>FConfigValue</t>
   </si>
@@ -467,6 +468,103 @@
   <si>
     <t>！！！从Engine.ini里面加载【ConsoleVariables】标签下的所有信息，会自动同步给各个变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FConfigCacheIni::InitializeConfigSystem();</t>
+  </si>
+  <si>
+    <t>文件读取与下载更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool FEngineLoop::AppInit( )</t>
+  </si>
+  <si>
+    <t>SCOPED_BOOT_TIMING("FConfigCacheIni::InitializeConfigSystem");</t>
+  </si>
+  <si>
+    <t>LLM_SCOPE(ELLMTag::ConfigSystem);</t>
+  </si>
+  <si>
+    <t>// init config system</t>
+  </si>
+  <si>
+    <t>void FConfigCacheIni::InitializeConfigSystem()</t>
+  </si>
+  <si>
+    <t>bool bEngineConfigCreated = FConfigCacheIni::LoadGlobalIniFile(GEngineIni, TEXT("Engine"), nullptr, bDefaultEngineIniRequired);</t>
+  </si>
+  <si>
+    <t>bool FConfigCacheIni::LoadGlobalIniFile(FString&amp; FinalIniFilename, const TCHAR* BaseIniName, const TCHAR* Platform, bool bForceReload, bool bRequireDefaultIni, bool bAllowGeneratedIniWhenCooked, bool bAllowRemoteConfig, const TCHAR* GeneratedConfigDir, FConfigCacheIni* ConfigSystem)</t>
+  </si>
+  <si>
+    <t>bool FConfigCacheIni::LoadExternalIniFile(FConfigFile&amp; ConfigFile, const TCHAR* IniName, const TCHAR* EngineConfigDir, const TCHAR* SourceConfigDir, bool bIsBaseIniName, const TCHAR* Platform, bool bForceReload, bool bWriteDestIni, bool bAllowGeneratedIniWhenCooked, const TCHAR* GeneratedConfigDir)</t>
+  </si>
+  <si>
+    <t>ConfigFile.SourceConfigFile = new FConfigFile();</t>
+  </si>
+  <si>
+    <t>// now generate and make sure it's up to date (using IniName as a Base for an ini filename)</t>
+  </si>
+  <si>
+    <t>// @todo This bNeedsWrite afaict is always true even if it loaded a completely valid generated/final .ini, and the write below will</t>
+  </si>
+  <si>
+    <t>// just write out the exact same thing it read in!</t>
+  </si>
+  <si>
+    <t>bool bNeedsWrite = GenerateDestIniFile(ConfigFile, DestIniFilename, ConfigFile.SourceIniHierarchy, bAllowGeneratedIniWhenCooked, true);</t>
+  </si>
+  <si>
+    <t>static bool GenerateDestIniFile(FConfigFile&amp; DestConfigFile, const FString&amp; DestIniFilename, const FConfigFileHierarchy&amp; SourceIniHierarchy, bool bAllowGeneratedINIs, const bool bUseHierarchyCache)</t>
+  </si>
+  <si>
+    <t>if (!FPlatformProperties::RequiresCookedData() || bAllowGeneratedINIs)</t>
+  </si>
+  <si>
+    <t>LoadAnIniFile(DestIniFilename, DestConfigFile);</t>
+  </si>
+  <si>
+    <t>static void LoadAnIniFile(const FString&amp; FilenameToLoad, FConfigFile&amp; ConfigFile)</t>
+  </si>
+  <si>
+    <t>if( !IsUsingLocalIniFile(*FilenameToLoad, nullptr) || DoesConfigFileExistWrapper(*FilenameToLoad) )</t>
+  </si>
+  <si>
+    <t>ProcessIniContents(*FilenameToLoad, *FilenameToLoad, &amp;ConfigFile, false, false);</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>//UE_LOG(LogConfig, Warning, TEXT( "LoadAnIniFile was unable to find FilenameToLoad: %s "), *FilenameToLoad);</t>
+  </si>
+  <si>
+    <t>void ProcessIniContents(const TCHAR* FilenameToLoad, const TCHAR* IniFileName, FConfigFile* Config, bool bDoEmptyConfig, bool bDoCombine)</t>
+  </si>
+  <si>
+    <t>Config-&gt;Read(IniFileName);</t>
+  </si>
+  <si>
+    <t>void FConfigFile::Read( const FString&amp; Filename )</t>
+  </si>
+  <si>
+    <t>if (LoadConfigFileWrapper(*FinalFileName, Text, bFoundOverride))</t>
+  </si>
+  <si>
+    <t>// process the contents of the string</t>
+  </si>
+  <si>
+    <t>ProcessInputFileContents(Text);</t>
+  </si>
+  <si>
+    <t>checkf(!bFoundOverride, TEXT("Failed to Load config override %s"), *FinalFileName);</t>
+  </si>
+  <si>
+    <t>static bool LoadConfigFileWrapper(const TCHAR* IniFile, FString&amp; Contents, bool bIsOverride = false)</t>
+  </si>
+  <si>
+    <t>return FFileHelper::LoadFileToString(Contents, IniFile);</t>
   </si>
 </sst>
 </file>
@@ -540,10 +638,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -876,7 +974,7 @@
   <dimension ref="A2:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -889,18 +987,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -1396,7 +1494,7 @@
   <dimension ref="B4:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1461,13 +1559,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F98A094-F423-4058-9F17-133A07F7003A}">
   <dimension ref="B3:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9" style="5"/>
+    <col min="2" max="2" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
@@ -1506,7 +1604,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1521,7 +1619,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1616,4 +1714,251 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B0A7CB-9A39-4E53-B6B2-6D8A308C7C0D}">
+  <dimension ref="B3:Q53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>71</v>
+      </c>
+      <c r="P46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>